--- a/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258983</v>
+        <v>24.49266632314295</v>
       </c>
       <c r="C2">
-        <v>18.71228480845788</v>
+        <v>18.96828366782543</v>
       </c>
       <c r="D2">
-        <v>3.712146929608842</v>
+        <v>4.333588960490924</v>
       </c>
       <c r="E2">
-        <v>30.09909619486762</v>
+        <v>29.21382029618269</v>
       </c>
       <c r="F2">
-        <v>17.2999510047735</v>
+        <v>18.59124872237463</v>
       </c>
       <c r="G2">
-        <v>2.043908991758983</v>
+        <v>2.071584505415577</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.159216038339132</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.138252493947185</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.5687144452271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503517</v>
+        <v>22.88573587628169</v>
       </c>
       <c r="C3">
-        <v>17.57199810504744</v>
+        <v>17.85725570160992</v>
       </c>
       <c r="D3">
-        <v>3.59749845654561</v>
+        <v>4.196859081625459</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.32102133038484</v>
       </c>
       <c r="F3">
-        <v>16.59918913251503</v>
+        <v>18.00587086705919</v>
       </c>
       <c r="G3">
-        <v>2.051043767845687</v>
+        <v>2.076468730828436</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.90028629522092</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.942540537153831</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.3407332244305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761603</v>
+        <v>21.83970279736576</v>
       </c>
       <c r="C4">
-        <v>16.83526365874923</v>
+        <v>17.14498019991685</v>
       </c>
       <c r="D4">
-        <v>3.525577805703337</v>
+        <v>4.110482788901874</v>
       </c>
       <c r="E4">
-        <v>26.46895975988461</v>
+        <v>26.09414241005118</v>
       </c>
       <c r="F4">
-        <v>16.18963647903525</v>
+        <v>17.64924845131027</v>
       </c>
       <c r="G4">
-        <v>2.055526369339699</v>
+        <v>2.07955589531849</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.735997085624268</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.819518945045894</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.2082728333152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015424</v>
+        <v>21.39827057864807</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>16.86313572588381</v>
       </c>
       <c r="D5">
-        <v>3.495912843721082</v>
+        <v>4.076836119671445</v>
       </c>
       <c r="E5">
-        <v>25.87476459299186</v>
+        <v>25.57764346556439</v>
       </c>
       <c r="F5">
-        <v>16.02808891136405</v>
+        <v>17.49084442949468</v>
       </c>
       <c r="G5">
-        <v>2.057380137012188</v>
+        <v>2.080842831687721</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.667542724177149</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.769161091993968</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.14526399565041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.32384007689132</v>
       </c>
       <c r="C6">
-        <v>16.47395282490028</v>
+        <v>16.8353225505169</v>
       </c>
       <c r="D6">
-        <v>3.490966312316485</v>
+        <v>4.073836145152685</v>
       </c>
       <c r="E6">
-        <v>25.77512858479972</v>
+        <v>25.49061016046219</v>
       </c>
       <c r="F6">
-        <v>16.00159092923039</v>
+        <v>17.44754621655228</v>
       </c>
       <c r="G6">
-        <v>2.057689629649815</v>
+        <v>2.081065407239584</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.655917759783867</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.761577121908168</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.12160564649061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788429</v>
+        <v>21.83321247646425</v>
       </c>
       <c r="C7">
-        <v>16.83112818660624</v>
+        <v>17.19321626836599</v>
       </c>
       <c r="D7">
-        <v>3.525179139713713</v>
+        <v>4.117147111988736</v>
       </c>
       <c r="E7">
-        <v>26.46101104974448</v>
+        <v>26.08648815999262</v>
       </c>
       <c r="F7">
-        <v>16.18743596040851</v>
+        <v>17.60102890494004</v>
       </c>
       <c r="G7">
-        <v>2.055551258425103</v>
+        <v>2.079593170369083</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.734610986851889</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.820713870448712</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.17126314780701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822907</v>
+        <v>23.95016255225594</v>
       </c>
       <c r="C8">
-        <v>18.32672470576468</v>
+        <v>18.65577656276812</v>
       </c>
       <c r="D8">
-        <v>3.672947966651937</v>
+        <v>4.296175493917771</v>
       </c>
       <c r="E8">
-        <v>29.34927899219528</v>
+        <v>28.57366895627258</v>
       </c>
       <c r="F8">
-        <v>17.05411325291634</v>
+        <v>18.33033639464374</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
+        <v>2.073275125169522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.070445310790362</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.073227600650782</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.44169348795232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810313</v>
+        <v>27.63402988064382</v>
       </c>
       <c r="C9">
-        <v>20.96886708758744</v>
+        <v>21.197725204966</v>
       </c>
       <c r="D9">
-        <v>3.949617738405444</v>
+        <v>4.614753228655371</v>
       </c>
       <c r="E9">
-        <v>34.54416360005666</v>
+        <v>32.94140957282742</v>
       </c>
       <c r="F9">
-        <v>18.91209816875172</v>
+        <v>19.85430217178764</v>
       </c>
       <c r="G9">
-        <v>2.029038174210597</v>
+        <v>2.06152701904097</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.688970248645137</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.5447492924246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5917046794574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.09616439954949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1514239417783</v>
+        <v>30.05482127450283</v>
       </c>
       <c r="C10">
-        <v>22.73412734669459</v>
+        <v>22.928038186333</v>
       </c>
       <c r="D10">
-        <v>4.143847419069983</v>
+        <v>4.874742813704069</v>
       </c>
       <c r="E10">
-        <v>38.10541674315342</v>
+        <v>34.9646762972166</v>
       </c>
       <c r="F10">
-        <v>20.38886581392279</v>
+        <v>20.76645788651782</v>
       </c>
       <c r="G10">
-        <v>2.016655865023571</v>
+        <v>2.053507625778628</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.0828560900355</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.872324092016694</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.44422833104606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089109</v>
+        <v>31.06280360374938</v>
       </c>
       <c r="C11">
-        <v>23.49970860925279</v>
+        <v>23.67909720321394</v>
       </c>
       <c r="D11">
-        <v>4.230104353320488</v>
+        <v>5.319755378876647</v>
       </c>
       <c r="E11">
-        <v>39.67789339784362</v>
+        <v>28.3645749766292</v>
       </c>
       <c r="F11">
-        <v>21.22734920633512</v>
+        <v>19.49143900051977</v>
       </c>
       <c r="G11">
-        <v>2.011067233912696</v>
+        <v>2.051789214662098</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.451631542486619</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.959039045160723</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.22126316644512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.42548808711483</v>
       </c>
       <c r="C12">
-        <v>23.7843128832263</v>
+        <v>23.9023462235017</v>
       </c>
       <c r="D12">
-        <v>4.262459450767984</v>
+        <v>5.642827013362487</v>
       </c>
       <c r="E12">
-        <v>40.26726686840232</v>
+        <v>22.41126104158498</v>
       </c>
       <c r="F12">
-        <v>21.54455073492708</v>
+        <v>18.26442248682248</v>
       </c>
       <c r="G12">
-        <v>2.008954605754061</v>
+        <v>2.051750605528799</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.267815255078704</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.968982522168912</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.1551535732224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468093</v>
+        <v>31.32574147658034</v>
       </c>
       <c r="C13">
-        <v>23.72325271567976</v>
+        <v>23.8023350085204</v>
       </c>
       <c r="D13">
-        <v>4.2555049839369</v>
+        <v>5.904668838461662</v>
       </c>
       <c r="E13">
-        <v>40.14059250483037</v>
+        <v>16.48110235038558</v>
       </c>
       <c r="F13">
-        <v>21.47624739385646</v>
+        <v>16.90881854901085</v>
       </c>
       <c r="G13">
-        <v>2.009409481375923</v>
+        <v>2.053024761394272</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.295261935674344</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.922986396371375</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06767213539621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.08345473812526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183071</v>
+        <v>31.04587492091814</v>
       </c>
       <c r="C14">
-        <v>23.52322896401708</v>
+        <v>23.59796749859168</v>
       </c>
       <c r="D14">
-        <v>4.23277243299895</v>
+        <v>6.064911838226821</v>
       </c>
       <c r="E14">
-        <v>39.72649888003885</v>
+        <v>12.39948689670872</v>
       </c>
       <c r="F14">
-        <v>21.25345106127962</v>
+        <v>15.87950193874549</v>
       </c>
       <c r="G14">
-        <v>2.010893369838846</v>
+        <v>2.054486513402981</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.098170924744764</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.867096236766066</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.32485027251851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438054</v>
+        <v>30.8771560147254</v>
       </c>
       <c r="C15">
-        <v>23.4000205008293</v>
+        <v>23.49405501822589</v>
       </c>
       <c r="D15">
-        <v>4.218807784540204</v>
+        <v>6.093011043100423</v>
       </c>
       <c r="E15">
-        <v>39.4720855897196</v>
+        <v>11.41723285621635</v>
       </c>
       <c r="F15">
-        <v>21.11694501275388</v>
+        <v>15.5867530759949</v>
       </c>
       <c r="G15">
-        <v>2.011802686326441</v>
+        <v>2.055159410205087</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.282752320104646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.841502725540322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.1299896727916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841312</v>
+        <v>29.90608954675489</v>
       </c>
       <c r="C16">
-        <v>22.68334771287208</v>
+        <v>22.82702198544147</v>
       </c>
       <c r="D16">
-        <v>4.138167417121538</v>
+        <v>5.945605588702913</v>
       </c>
       <c r="E16">
-        <v>38.00175647449707</v>
+        <v>11.28027543478703</v>
       </c>
       <c r="F16">
-        <v>20.33401832548837</v>
+        <v>15.37602402775759</v>
       </c>
       <c r="G16">
-        <v>2.01702176164178</v>
+        <v>2.058301267800048</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.001793318481235</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.713436795145757</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.15774339611703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42677885381245</v>
+        <v>29.29981657985098</v>
       </c>
       <c r="C17">
-        <v>22.23415244515487</v>
+        <v>22.41983437938699</v>
       </c>
       <c r="D17">
-        <v>4.088153425241781</v>
+        <v>5.742303216938881</v>
       </c>
       <c r="E17">
-        <v>37.08807866683508</v>
+        <v>13.38635553275821</v>
       </c>
       <c r="F17">
-        <v>19.93861965021826</v>
+        <v>15.7802112669253</v>
       </c>
       <c r="G17">
-        <v>2.020232994310831</v>
+        <v>2.059961030497345</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.307931783648366</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.644269112860384</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.58299135364639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.046947438029</v>
+        <v>28.95452436606275</v>
       </c>
       <c r="C18">
-        <v>21.97225679478444</v>
+        <v>22.16444665626625</v>
       </c>
       <c r="D18">
-        <v>4.059189256481922</v>
+        <v>5.465780429740172</v>
       </c>
       <c r="E18">
-        <v>36.55802883949858</v>
+        <v>17.95867208990727</v>
       </c>
       <c r="F18">
-        <v>19.71922768052412</v>
+        <v>16.78554409291046</v>
       </c>
       <c r="G18">
-        <v>2.022084344121928</v>
+        <v>2.060395421184307</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.266155076833628</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.619276282305147</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.42595252609114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144875</v>
+        <v>28.85164769548753</v>
       </c>
       <c r="C19">
-        <v>21.88297495701926</v>
+        <v>22.13903500602907</v>
       </c>
       <c r="D19">
-        <v>4.049348848841772</v>
+        <v>5.173506130908312</v>
       </c>
       <c r="E19">
-        <v>36.37776445352535</v>
+        <v>24.24597306498533</v>
       </c>
       <c r="F19">
-        <v>19.64525149608282</v>
+        <v>18.11461374072026</v>
       </c>
       <c r="G19">
-        <v>2.022712000138848</v>
+        <v>2.059659617645809</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.278060908810593</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.643304718169249</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.49383433671839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566342</v>
+        <v>29.43636915149335</v>
       </c>
       <c r="C20">
-        <v>22.28233491534761</v>
+        <v>22.61293314624111</v>
       </c>
       <c r="D20">
-        <v>4.093497996693085</v>
+        <v>4.829660403423384</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>34.40385939798826</v>
       </c>
       <c r="F20">
-        <v>19.97936938415224</v>
+        <v>20.3946872154569</v>
       </c>
       <c r="G20">
-        <v>2.019890722975315</v>
+        <v>2.0556477065682</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.977166495449919</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.792827574933824</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.1411691038638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.24019517860266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988499</v>
+        <v>31.2128873691445</v>
       </c>
       <c r="C21">
-        <v>23.58212402688103</v>
+        <v>23.87180592760401</v>
       </c>
       <c r="D21">
-        <v>4.239457939530541</v>
+        <v>4.963924874935277</v>
       </c>
       <c r="E21">
-        <v>39.84828698316163</v>
+        <v>37.23156527326921</v>
       </c>
       <c r="F21">
-        <v>21.3188991544826</v>
+        <v>21.41888838623526</v>
       </c>
       <c r="G21">
-        <v>2.010457439416305</v>
+        <v>2.049227471009077</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.331854164063795</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.05173183932555</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.78587279155189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540136</v>
+        <v>32.32256361032284</v>
       </c>
       <c r="C22">
-        <v>24.40074205320526</v>
+        <v>24.6138801197208</v>
       </c>
       <c r="D22">
-        <v>4.333052850282511</v>
+        <v>5.059435747161129</v>
       </c>
       <c r="E22">
-        <v>41.55330773732182</v>
+        <v>38.57128553915183</v>
       </c>
       <c r="F22">
-        <v>22.24171177571109</v>
+        <v>22.03675548966449</v>
       </c>
       <c r="G22">
-        <v>2.004312106826866</v>
+        <v>2.045186385304464</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.540833089149837</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.212966268023601</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.11096486298121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>31.73534804202202</v>
       </c>
       <c r="C23">
-        <v>23.96662339225427</v>
+        <v>24.17410756943924</v>
       </c>
       <c r="D23">
-        <v>4.283265111233931</v>
+        <v>5.001185173529103</v>
       </c>
       <c r="E23">
-        <v>40.64623846627671</v>
+        <v>37.86180514530616</v>
       </c>
       <c r="F23">
-        <v>21.74929727521154</v>
+        <v>21.75145750447885</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
+        <v>2.047321382313501</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.430018046149989</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.124763455075183</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.97437081622241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713345</v>
+        <v>29.41053052578191</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>22.52351586716033</v>
       </c>
       <c r="D24">
-        <v>4.091082370915124</v>
+        <v>4.786763194111646</v>
       </c>
       <c r="E24">
-        <v>37.14163760331674</v>
+        <v>35.06520157565711</v>
       </c>
       <c r="F24">
-        <v>19.96094120223439</v>
+        <v>20.60081722598498</v>
       </c>
       <c r="G24">
-        <v>2.020045447546533</v>
+        <v>2.055542008347234</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.002604939480796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.79065573902421</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.41479316140643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260786</v>
+        <v>26.68629855093528</v>
       </c>
       <c r="C25">
-        <v>20.28516814104458</v>
+        <v>20.61659098146711</v>
       </c>
       <c r="D25">
-        <v>3.876297461711919</v>
+        <v>4.543036311527937</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>31.81296454054986</v>
       </c>
       <c r="F25">
-        <v>18.39326957451287</v>
+        <v>19.36590674883738</v>
       </c>
       <c r="G25">
-        <v>2.033653362898404</v>
+        <v>2.064667127147425</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.52510738843625</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.422478011629868</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339287</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.85062811068665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>12.82264566686172</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>8.64228904905789</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>5.699787950656556</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>8.170463392730042</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>23.18654404439137</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>26.57270156257214</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.570382158111406</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>4.194711764985534</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.43302434073363</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.265783829943372</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.83651749557071</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.037124358181072</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.521469241992712</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
+        <v>17.30326686694952</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>12.01225969346414</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>8.554882451620131</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>5.519458677298178</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>8.080333858099277</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>23.10054266748117</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>26.50846036751939</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>3.747519945432082</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>4.337035584749377</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.4857498792073</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.243802273449563</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.2884920121397</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.907923748592359</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.158378573140523</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
+        <v>17.35429313021497</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>11.48499109877447</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>8.500753198760789</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>5.406840128060532</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>8.02392594547339</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>23.05421059073248</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>26.47839684451663</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>3.860409833114536</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>4.428357995975912</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.52046983541158</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.229553223815804</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.936377173043621</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.827947410763358</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.928710332252791</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
+        <v>17.39052833397674</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>11.26015973310583</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>8.480834579710441</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>5.361192058845667</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>7.999537389666356</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>23.02991202028121</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>26.45691407871626</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>3.907757771755874</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>4.468893073705553</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.53324677663073</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.223079826759605</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.790772580315082</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.796720406515653</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.83398462144266</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
+        <v>17.40169769915347</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>11.21927569131836</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>8.480323711445767</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>5.354397507560224</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>7.994075225673504</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>23.0173809321885</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>26.43938284998234</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>3.916043285146222</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>4.478647221914327</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.53301573623356</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.221412309429889</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.768474225763377</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.7933640690787</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.818706169114323</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
+        <v>17.39775436453177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>11.47370175412988</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>8.508183068115928</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>5.408409604457577</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>8.019813660775045</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>23.03048968424527</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>26.43968648863553</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>3.862007111508918</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>4.436729616282552</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.51413812641578</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.227901514650417</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.940104520817172</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.832502709083802</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.928892200017795</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
+        <v>17.37467922126963</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>12.53923485156464</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>8.622697410879578</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>5.640816079073846</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>8.134746050012343</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>23.12499529722837</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>26.4982913565244</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.631800201808227</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>4.252836337325151</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.44219312243807</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.256383823018129</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.65799787167148</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.999139001767366</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.399536768306941</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
+        <v>17.29884027142733</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>14.44315852941416</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>8.829790678350536</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>6.075387787129021</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>8.357772729388994</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>23.40357924412268</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>26.75787735617709</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.21099481510462</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>3.910315308078098</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.33161215240563</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.308960147695594</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.92915893673283</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.311035153491401</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.26233846257451</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
+        <v>17.21864919835402</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>15.69026345519233</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>9.002941405215999</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>6.348619840542405</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>8.447317178334034</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>23.50850183775585</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>26.81256685490181</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>2.944918648537978</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>3.685794614572618</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.23100885264092</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.330283020566571</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.79963661757203</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.480366403014375</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.81183886201752</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
+        <v>17.10791134134785</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>16.14480220744096</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>9.287479844275632</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>6.183844748350921</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>7.961475527841001</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>22.48461622148208</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>25.34944891037469</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>3.633114348904666</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>3.636591642880592</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.93488195601657</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.267062998226912</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.31531362871315</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.086408618916649</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.66681138776941</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
+        <v>16.4351737653169</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>16.28577195060899</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>9.514373420493447</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>5.981282143504692</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>7.620342284418437</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>21.63361528561232</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>24.16266581669155</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>4.776769279990343</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>3.624542467324293</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.718328626792688</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.268482967887229</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.56912665740584</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.729945604472575</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.4222484534936</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
+        <v>15.91955500623933</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>16.18911121174338</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>9.718828581903258</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>5.736640636871057</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>7.373887683898999</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>20.82965105446778</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>23.0608718839376</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.065055690844184</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>3.653058865081346</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.540841897404187</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.314851128549612</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.65041037313552</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.389277596331165</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.08295949400028</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
+        <v>15.47151207322874</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>16.01068254113531</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>9.858465869867722</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>5.545265878072766</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>7.261812744031912</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>20.28901087350565</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>22.32988297272641</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.011361214388569</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.693795246626126</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.434662774925528</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.373365562272512</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.63178253120249</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.165562123104158</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.799576774919457</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
+        <v>15.18981722622335</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>15.91296305330574</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>9.888909768828919</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>5.490554629690343</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>7.242922198917562</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>20.16120880940958</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>22.15977300274793</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.235767186021374</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.716504202313224</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.415151532139078</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.389504799631715</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.59176624130541</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.11338955889756</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.710962982099092</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
+        <v>15.13096314967266</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>15.41353431718198</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>9.77520651413907</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>5.416616400710613</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>7.249771363747387</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>20.26487003843793</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>22.33816438368479</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.065796067542742</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.811778276498048</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.491500752295439</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.365090349855913</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.22613536202469</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.107232885084692</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.535097174560841</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
+        <v>15.26307121549256</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>15.12092965699015</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>9.61091051894735</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>5.464141687951836</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>7.304648282157035</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>20.62859829335327</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>22.85697982297941</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.407219398174194</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>3.863872135165022</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.605447927009696</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.311323514532634</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.95044928820741</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.218905600054319</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.554673218679099</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
+        <v>15.51100016766614</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>14.98694759768744</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>9.387600861740975</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>5.619996741901417</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>7.462320826445076</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>21.28170511627276</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>23.76787478364919</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.308035532337755</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>3.874327690902199</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.77181087177382</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.252814402731269</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.72223613154612</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.459662622210137</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.743398672226839</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
+        <v>15.90453881064247</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>14.98041334898695</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>9.182648144837751</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>5.853392744747913</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>7.76174360193785</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>22.09886485032784</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>24.89296210006349</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.096637868446233</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>3.864289223867902</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.963375253817548</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.23512747298433</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.56324280674051</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.815657286374414</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.05223372296608</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
+        <v>16.37458340194098</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>15.35219426757982</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>8.985086255943957</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>6.28214784263526</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>8.410552474268917</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>23.40421838168068</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>26.67305494905204</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>3.015889333836261</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.769139574595599</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.23577727117925</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.320191263212668</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.59230179194899</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.447632608550348</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.6718157637843</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
+        <v>17.08387976861935</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>16.27893937071176</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>9.083757863203008</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>6.537257698201008</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>8.583117014423985</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>23.69911113813863</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>27.01763816451917</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>2.780967408802368</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>3.590778254614605</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.21091334875441</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.356819187561831</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.20700555837359</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.660351836026737</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.14822066790747</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
+        <v>17.12758193134135</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>16.86035936193776</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>9.14671590315012</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>6.681361169438091</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>8.664880467457078</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>23.86412698094504</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>27.21361710210408</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>2.641162165841392</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>3.469150424894189</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.19072219364563</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.375116028738913</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.59550946638134</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.763255729478322</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.42678967408557</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
+        <v>17.1454961250942</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>16.55986194933881</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>9.103061201810217</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>6.602609964150376</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>8.625302342509178</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>23.80126722530366</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>27.15071472542023</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>2.714632465316074</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>3.523827148716548</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.20866219584138</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.366934085101204</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.38419595994891</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.703281367765721</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.27760872824703</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
+        <v>17.15357531502405</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>15.35513067526169</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>8.953187160248184</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>6.301262038260043</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>8.466933379330984</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>23.53605475578942</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>26.86715902493916</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>3.000567112947285</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.753073983930629</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.27010480890398</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.332401660263018</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.56139671208259</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.481355093242194</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.69767186579912</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
+        <v>17.16710870460512</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>13.93702225954123</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>8.788922905080446</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>5.963601459479485</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>8.292038312499148</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>23.28162314303055</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>26.61158793046994</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.32295397676703</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>4.01365117689121</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.347933038434</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.29281860554563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.60838857384665</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.235932956774302</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.03791957965616</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>17.20751833995353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82264566686172</v>
+        <v>12.78231697532866</v>
       </c>
       <c r="C2">
-        <v>8.64228904905789</v>
+        <v>8.121179782274906</v>
       </c>
       <c r="D2">
-        <v>5.699787950656556</v>
+        <v>5.778296851378345</v>
       </c>
       <c r="E2">
-        <v>8.170463392730042</v>
+        <v>8.083166151445397</v>
       </c>
       <c r="F2">
-        <v>23.18654404439137</v>
+        <v>22.40199163356046</v>
       </c>
       <c r="G2">
-        <v>26.57270156257214</v>
+        <v>25.08148026011751</v>
       </c>
       <c r="H2">
-        <v>3.570382158111406</v>
+        <v>3.395293039591643</v>
       </c>
       <c r="I2">
-        <v>4.194711764985534</v>
+        <v>3.959259460140323</v>
       </c>
       <c r="J2">
-        <v>10.43302434073363</v>
+        <v>10.27298980309451</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.265783829943372</v>
+        <v>13.13377079355021</v>
       </c>
       <c r="M2">
-        <v>10.83651749557071</v>
+        <v>11.87656564011681</v>
       </c>
       <c r="N2">
-        <v>6.037124358181072</v>
+        <v>6.187783029231951</v>
       </c>
       <c r="O2">
-        <v>9.521469241992712</v>
+        <v>10.96125093815661</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.304411200758304</v>
       </c>
       <c r="Q2">
-        <v>17.30326686694952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.524813530025702</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.68191640269567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01225969346414</v>
+        <v>11.97067784252615</v>
       </c>
       <c r="C3">
-        <v>8.554882451620131</v>
+        <v>7.966439382329307</v>
       </c>
       <c r="D3">
-        <v>5.519458677298178</v>
+        <v>5.596097441970038</v>
       </c>
       <c r="E3">
-        <v>8.080333858099277</v>
+        <v>8.005516192155124</v>
       </c>
       <c r="F3">
-        <v>23.10054266748117</v>
+        <v>22.36180042477228</v>
       </c>
       <c r="G3">
-        <v>26.50846036751939</v>
+        <v>25.14489584038625</v>
       </c>
       <c r="H3">
-        <v>3.747519945432082</v>
+        <v>3.560600929576673</v>
       </c>
       <c r="I3">
-        <v>4.337035584749377</v>
+        <v>4.086055107470624</v>
       </c>
       <c r="J3">
-        <v>10.4857498792073</v>
+        <v>10.30232677277498</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.243802273449563</v>
+        <v>13.28456498099721</v>
       </c>
       <c r="M3">
-        <v>10.2884920121397</v>
+        <v>11.96095814392102</v>
       </c>
       <c r="N3">
-        <v>5.907923748592359</v>
+        <v>6.168619318184023</v>
       </c>
       <c r="O3">
-        <v>9.158378573140523</v>
+        <v>10.39954938794351</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.171621189844508</v>
       </c>
       <c r="Q3">
-        <v>17.35429313021497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.1542489407256</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.76118903142239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48499109877447</v>
+        <v>11.44099419043694</v>
       </c>
       <c r="C4">
-        <v>8.500753198760789</v>
+        <v>7.871281904209411</v>
       </c>
       <c r="D4">
-        <v>5.406840128060532</v>
+        <v>5.482478402087834</v>
       </c>
       <c r="E4">
-        <v>8.02392594547339</v>
+        <v>7.956876113071229</v>
       </c>
       <c r="F4">
-        <v>23.05421059073248</v>
+        <v>22.34255932992186</v>
       </c>
       <c r="G4">
-        <v>26.47839684451663</v>
+        <v>25.1942103485306</v>
       </c>
       <c r="H4">
-        <v>3.860409833114536</v>
+        <v>3.665978568998294</v>
       </c>
       <c r="I4">
-        <v>4.428357995975912</v>
+        <v>4.167670400067496</v>
       </c>
       <c r="J4">
-        <v>10.52046983541158</v>
+        <v>10.32125414728676</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.229553223815804</v>
+        <v>13.37905842048051</v>
       </c>
       <c r="M4">
-        <v>9.936377173043621</v>
+        <v>12.02688459103657</v>
       </c>
       <c r="N4">
-        <v>5.827947410763358</v>
+        <v>6.156159286821542</v>
       </c>
       <c r="O4">
-        <v>8.928710332252791</v>
+        <v>10.03879132939012</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.089804003633144</v>
       </c>
       <c r="Q4">
-        <v>17.39052833397674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.919576725491762</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.81386398932478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26015973310583</v>
+        <v>11.21471374445094</v>
       </c>
       <c r="C5">
-        <v>8.480834579710441</v>
+        <v>7.835693049648736</v>
       </c>
       <c r="D5">
-        <v>5.361192058845667</v>
+        <v>5.436445022533047</v>
       </c>
       <c r="E5">
-        <v>7.999537389666356</v>
+        <v>7.935730170097519</v>
       </c>
       <c r="F5">
-        <v>23.02991202028121</v>
+        <v>22.32927047454852</v>
       </c>
       <c r="G5">
-        <v>26.45691407871626</v>
+        <v>25.2057846303916</v>
       </c>
       <c r="H5">
-        <v>3.907757771755874</v>
+        <v>3.710190812058872</v>
       </c>
       <c r="I5">
-        <v>4.468893073705553</v>
+        <v>4.204596817399592</v>
       </c>
       <c r="J5">
-        <v>10.53324677663073</v>
+        <v>10.32725143851187</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.223079826759605</v>
+        <v>13.41315717008946</v>
       </c>
       <c r="M5">
-        <v>9.790772580315082</v>
+        <v>12.05482134269652</v>
       </c>
       <c r="N5">
-        <v>5.796720406515653</v>
+        <v>6.150470664673956</v>
       </c>
       <c r="O5">
-        <v>8.83398462144266</v>
+        <v>9.889578292283987</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.057855711914537</v>
       </c>
       <c r="Q5">
-        <v>17.40169769915347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.822698150852732</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.83170486501417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21927569131836</v>
+        <v>11.17355813922575</v>
       </c>
       <c r="C6">
-        <v>8.480323711445767</v>
+        <v>7.833752477742002</v>
       </c>
       <c r="D6">
-        <v>5.354397507560224</v>
+        <v>5.42956626758575</v>
       </c>
       <c r="E6">
-        <v>7.994075225673504</v>
+        <v>7.930873116995034</v>
       </c>
       <c r="F6">
-        <v>23.0173809321885</v>
+        <v>22.31884522043041</v>
       </c>
       <c r="G6">
-        <v>26.43938284998234</v>
+        <v>25.19437527637508</v>
       </c>
       <c r="H6">
-        <v>3.916043285146222</v>
+        <v>3.717938742287336</v>
       </c>
       <c r="I6">
-        <v>4.478647221914327</v>
+        <v>4.214264302068477</v>
       </c>
       <c r="J6">
-        <v>10.53301573623356</v>
+        <v>10.32588523034912</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.221412309429889</v>
+        <v>13.41288611389088</v>
       </c>
       <c r="M6">
-        <v>9.768474225763377</v>
+        <v>12.05668926143386</v>
       </c>
       <c r="N6">
-        <v>5.7933640690787</v>
+        <v>6.148984882935206</v>
       </c>
       <c r="O6">
-        <v>8.818706169114323</v>
+        <v>9.866633210069995</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.05430339426518</v>
       </c>
       <c r="Q6">
-        <v>17.39775436453177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.807041484276425</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.82909789514889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.47370175412988</v>
+        <v>11.4300204428914</v>
       </c>
       <c r="C7">
-        <v>8.508183068115928</v>
+        <v>7.880051068324392</v>
       </c>
       <c r="D7">
-        <v>5.408409604457577</v>
+        <v>5.487175779507226</v>
       </c>
       <c r="E7">
-        <v>8.019813660775045</v>
+        <v>7.953214871794106</v>
       </c>
       <c r="F7">
-        <v>23.03048968424527</v>
+        <v>22.3080805301454</v>
       </c>
       <c r="G7">
-        <v>26.43968648863553</v>
+        <v>25.21280314563834</v>
       </c>
       <c r="H7">
-        <v>3.862007111508918</v>
+        <v>3.667989891057866</v>
       </c>
       <c r="I7">
-        <v>4.436729616282552</v>
+        <v>4.177810234267443</v>
       </c>
       <c r="J7">
-        <v>10.51413812641578</v>
+        <v>10.28651123115937</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.227901514650417</v>
+        <v>13.35752997454059</v>
       </c>
       <c r="M7">
-        <v>9.940104520817172</v>
+        <v>12.0154335662421</v>
       </c>
       <c r="N7">
-        <v>5.832502709083802</v>
+        <v>6.154253252264299</v>
       </c>
       <c r="O7">
-        <v>8.928892200017795</v>
+        <v>10.04149586169335</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.094291304536531</v>
       </c>
       <c r="Q7">
-        <v>17.37467922126963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.920128451730989</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.79033693233654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.53923485156464</v>
+        <v>12.49985109404988</v>
       </c>
       <c r="C8">
-        <v>8.622697410879578</v>
+        <v>8.077435504253572</v>
       </c>
       <c r="D8">
-        <v>5.640816079073846</v>
+        <v>5.728835612613782</v>
       </c>
       <c r="E8">
-        <v>8.134746050012343</v>
+        <v>8.052822130417713</v>
       </c>
       <c r="F8">
-        <v>23.12499529722837</v>
+        <v>22.31921800553948</v>
       </c>
       <c r="G8">
-        <v>26.4982913565244</v>
+        <v>25.23777473233898</v>
       </c>
       <c r="H8">
-        <v>3.631800201808227</v>
+        <v>3.454140416726172</v>
       </c>
       <c r="I8">
-        <v>4.252836337325151</v>
+        <v>4.015206882110048</v>
       </c>
       <c r="J8">
-        <v>10.44219312243807</v>
+        <v>10.18246510919391</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.256383823018129</v>
+        <v>13.14787780626224</v>
       </c>
       <c r="M8">
-        <v>10.65799787167148</v>
+        <v>11.87752920847219</v>
       </c>
       <c r="N8">
-        <v>5.999139001767366</v>
+        <v>6.178292062950335</v>
       </c>
       <c r="O8">
-        <v>9.399536768306941</v>
+        <v>10.77532822823595</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.265384969429682</v>
       </c>
       <c r="Q8">
-        <v>17.29884027142733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.401683193524303</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.66065616947812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.44315852941416</v>
+        <v>14.36187442972006</v>
       </c>
       <c r="C9">
-        <v>8.829790678350536</v>
+        <v>8.448549755907628</v>
       </c>
       <c r="D9">
-        <v>6.075387787129021</v>
+        <v>6.170811927144726</v>
       </c>
       <c r="E9">
-        <v>8.357772729388994</v>
+        <v>8.24555839035153</v>
       </c>
       <c r="F9">
-        <v>23.40357924412268</v>
+        <v>22.46771873082861</v>
       </c>
       <c r="G9">
-        <v>26.75787735617709</v>
+        <v>25.23531343046479</v>
       </c>
       <c r="H9">
-        <v>3.21099481510462</v>
+        <v>3.061784880644265</v>
       </c>
       <c r="I9">
-        <v>3.910315308078098</v>
+        <v>3.709268445789192</v>
       </c>
       <c r="J9">
-        <v>10.33161215240563</v>
+        <v>10.09716726124527</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.308960147695594</v>
+        <v>12.79899427053533</v>
       </c>
       <c r="M9">
-        <v>11.92915893673283</v>
+        <v>11.75043694708791</v>
       </c>
       <c r="N9">
-        <v>6.311035153491401</v>
+        <v>6.22382638236949</v>
       </c>
       <c r="O9">
-        <v>10.26233846257451</v>
+        <v>12.07864993548315</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.5884140391859</v>
       </c>
       <c r="Q9">
-        <v>17.21864919835402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.28095848684494</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.49686437904601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.69026345519233</v>
+        <v>15.57306389012285</v>
       </c>
       <c r="C10">
-        <v>9.002941405215999</v>
+        <v>8.739329617037198</v>
       </c>
       <c r="D10">
-        <v>6.348619840542405</v>
+        <v>6.465052326582242</v>
       </c>
       <c r="E10">
-        <v>8.447317178334034</v>
+        <v>8.318608598941303</v>
       </c>
       <c r="F10">
-        <v>23.50850183775585</v>
+        <v>22.42166616799249</v>
       </c>
       <c r="G10">
-        <v>26.81256685490181</v>
+        <v>25.45391635035493</v>
       </c>
       <c r="H10">
-        <v>2.944918648537978</v>
+        <v>2.817575193341566</v>
       </c>
       <c r="I10">
-        <v>3.685794614572618</v>
+        <v>3.513318833872426</v>
       </c>
       <c r="J10">
-        <v>10.23100885264092</v>
+        <v>9.861510089370272</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.330283020566571</v>
+        <v>12.48161814836435</v>
       </c>
       <c r="M10">
-        <v>12.79963661757203</v>
+        <v>11.65274487568254</v>
       </c>
       <c r="N10">
-        <v>6.480366403014375</v>
+        <v>6.241326483038722</v>
       </c>
       <c r="O10">
-        <v>10.81183886201752</v>
+        <v>12.96504433357943</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.765643223593508</v>
       </c>
       <c r="Q10">
-        <v>17.10791134134785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84156438933993</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.28278292534813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.14480220744096</v>
+        <v>16.04121739776794</v>
       </c>
       <c r="C11">
-        <v>9.287479844275632</v>
+        <v>9.091790524029584</v>
       </c>
       <c r="D11">
-        <v>6.183844748350921</v>
+        <v>6.328307668157028</v>
       </c>
       <c r="E11">
-        <v>7.961475527841001</v>
+        <v>7.854346762571664</v>
       </c>
       <c r="F11">
-        <v>22.48461622148208</v>
+        <v>21.3382643508984</v>
       </c>
       <c r="G11">
-        <v>25.34944891037469</v>
+        <v>24.77329329471335</v>
       </c>
       <c r="H11">
-        <v>3.633114348904666</v>
+        <v>3.538228968752854</v>
       </c>
       <c r="I11">
-        <v>3.636591642880592</v>
+        <v>3.478468654120221</v>
       </c>
       <c r="J11">
-        <v>9.93488195601657</v>
+        <v>9.358400589228308</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.267062998226912</v>
+        <v>11.9785963056124</v>
       </c>
       <c r="M11">
-        <v>13.31531362871315</v>
+        <v>11.19400526138151</v>
       </c>
       <c r="N11">
-        <v>6.086408618916649</v>
+        <v>6.198084389561518</v>
       </c>
       <c r="O11">
-        <v>10.66681138776941</v>
+        <v>13.4634168845929</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.355430558931594</v>
       </c>
       <c r="Q11">
-        <v>16.4351737653169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.69800187370443</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.57459256321543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28577195060899</v>
+        <v>16.20003188294061</v>
       </c>
       <c r="C12">
-        <v>9.514373420493447</v>
+        <v>9.337633690410783</v>
       </c>
       <c r="D12">
-        <v>5.981282143504692</v>
+        <v>6.134512570556272</v>
       </c>
       <c r="E12">
-        <v>7.620342284418437</v>
+        <v>7.531458508186716</v>
       </c>
       <c r="F12">
-        <v>21.63361528561232</v>
+        <v>20.51310544027696</v>
       </c>
       <c r="G12">
-        <v>24.16266581669155</v>
+        <v>23.98030145853848</v>
       </c>
       <c r="H12">
-        <v>4.776769279990343</v>
+        <v>4.705927759626012</v>
       </c>
       <c r="I12">
-        <v>3.624542467324293</v>
+        <v>3.469169548497848</v>
       </c>
       <c r="J12">
-        <v>9.718328626792688</v>
+        <v>9.120009076827481</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.268482967887229</v>
+        <v>11.68466799305353</v>
       </c>
       <c r="M12">
-        <v>13.56912665740584</v>
+        <v>10.8665112516929</v>
       </c>
       <c r="N12">
-        <v>5.729945604472575</v>
+        <v>6.21670682626444</v>
       </c>
       <c r="O12">
-        <v>10.4222484534936</v>
+        <v>13.70106085867729</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.982688510761008</v>
       </c>
       <c r="Q12">
-        <v>15.91955500623933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.45140486787192</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.08411437241061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.18911121174338</v>
+        <v>16.12561844173912</v>
       </c>
       <c r="C13">
-        <v>9.718828581903258</v>
+        <v>9.536371242673242</v>
       </c>
       <c r="D13">
-        <v>5.736640636871057</v>
+        <v>5.877769320509745</v>
       </c>
       <c r="E13">
-        <v>7.373887683898999</v>
+        <v>7.302318647560199</v>
       </c>
       <c r="F13">
-        <v>20.82965105446778</v>
+        <v>19.82426133013943</v>
       </c>
       <c r="G13">
-        <v>23.0608718839376</v>
+        <v>22.85968264948478</v>
       </c>
       <c r="H13">
-        <v>6.065055690844184</v>
+        <v>6.006880365179537</v>
       </c>
       <c r="I13">
-        <v>3.653058865081346</v>
+        <v>3.493397627708175</v>
       </c>
       <c r="J13">
-        <v>9.540841897404187</v>
+        <v>9.046170723882993</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.314851128549612</v>
+        <v>11.50205491230474</v>
       </c>
       <c r="M13">
-        <v>13.65041037313552</v>
+        <v>10.61956466442642</v>
       </c>
       <c r="N13">
-        <v>5.389277596331165</v>
+        <v>6.277604930940053</v>
       </c>
       <c r="O13">
-        <v>10.08295949400028</v>
+        <v>13.76696529234284</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.624944555125174</v>
       </c>
       <c r="Q13">
-        <v>15.47151207322874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.1062674274478</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.7229845041926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.01068254113531</v>
+        <v>15.96515315347599</v>
       </c>
       <c r="C14">
-        <v>9.858465869867722</v>
+        <v>9.660907427099584</v>
       </c>
       <c r="D14">
-        <v>5.545265878072766</v>
+        <v>5.669133432922293</v>
       </c>
       <c r="E14">
-        <v>7.261812744031912</v>
+        <v>7.202224849096664</v>
       </c>
       <c r="F14">
-        <v>20.28901087350565</v>
+        <v>19.39837961642396</v>
       </c>
       <c r="G14">
-        <v>22.32988297272641</v>
+        <v>21.95188727579819</v>
       </c>
       <c r="H14">
-        <v>7.011361214388569</v>
+        <v>6.958283149105822</v>
       </c>
       <c r="I14">
-        <v>3.693795246626126</v>
+        <v>3.528489667572227</v>
       </c>
       <c r="J14">
-        <v>9.434662774925528</v>
+        <v>9.049467987083288</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.373365562272512</v>
+        <v>11.41604376678538</v>
       </c>
       <c r="M14">
-        <v>13.63178253120249</v>
+        <v>10.48619617772712</v>
       </c>
       <c r="N14">
-        <v>5.165562123104158</v>
+        <v>6.34377720941774</v>
       </c>
       <c r="O14">
-        <v>9.799576774919457</v>
+        <v>13.73759746244108</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.389544081361211</v>
       </c>
       <c r="Q14">
-        <v>15.18981722622335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.816948832320522</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.52424209056526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.91296305330574</v>
+        <v>15.87293941633595</v>
       </c>
       <c r="C15">
-        <v>9.888909768828919</v>
+        <v>9.684760628894171</v>
       </c>
       <c r="D15">
-        <v>5.490554629690343</v>
+        <v>5.606546265524241</v>
       </c>
       <c r="E15">
-        <v>7.242922198917562</v>
+        <v>7.186683171577211</v>
       </c>
       <c r="F15">
-        <v>20.16120880940958</v>
+        <v>19.31308464291786</v>
       </c>
       <c r="G15">
-        <v>22.15977300274793</v>
+        <v>21.67535317297941</v>
       </c>
       <c r="H15">
-        <v>7.235767186021374</v>
+        <v>7.182979631924981</v>
       </c>
       <c r="I15">
-        <v>3.716504202313224</v>
+        <v>3.548996278291557</v>
       </c>
       <c r="J15">
-        <v>9.415151532139078</v>
+        <v>9.073063618228984</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.389504799631715</v>
+        <v>11.40817222155461</v>
       </c>
       <c r="M15">
-        <v>13.59176624130541</v>
+        <v>10.46718848759929</v>
       </c>
       <c r="N15">
-        <v>5.11338955889756</v>
+        <v>6.361189268223241</v>
       </c>
       <c r="O15">
-        <v>9.710962982099092</v>
+        <v>13.69502265080237</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.33465497896781</v>
       </c>
       <c r="Q15">
-        <v>15.13096314967266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.726066980432806</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.49512617891773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.41353431718198</v>
+        <v>15.38315933057556</v>
       </c>
       <c r="C16">
-        <v>9.77520651413907</v>
+        <v>9.540991377760283</v>
       </c>
       <c r="D16">
-        <v>5.416616400710613</v>
+        <v>5.502514159049735</v>
       </c>
       <c r="E16">
-        <v>7.249771363747387</v>
+        <v>7.197997434733688</v>
       </c>
       <c r="F16">
-        <v>20.26487003843793</v>
+        <v>19.5376990956244</v>
       </c>
       <c r="G16">
-        <v>22.33816438368479</v>
+        <v>21.35242165766805</v>
       </c>
       <c r="H16">
-        <v>7.065796067542742</v>
+        <v>7.004587788062667</v>
       </c>
       <c r="I16">
-        <v>3.811778276498048</v>
+        <v>3.630896068840222</v>
       </c>
       <c r="J16">
-        <v>9.491500752295439</v>
+        <v>9.307068480460771</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.365090349855913</v>
+        <v>11.54869382891908</v>
       </c>
       <c r="M16">
-        <v>13.22613536202469</v>
+        <v>10.60810759879032</v>
       </c>
       <c r="N16">
-        <v>5.107232885084692</v>
+        <v>6.333697353486493</v>
       </c>
       <c r="O16">
-        <v>9.535097174560841</v>
+        <v>13.33038065641219</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.329558796971478</v>
       </c>
       <c r="Q16">
-        <v>15.26307121549256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.543239620624439</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.70682439399193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.12092965699015</v>
+        <v>15.08849975767518</v>
       </c>
       <c r="C17">
-        <v>9.61091051894735</v>
+        <v>9.359172992520941</v>
       </c>
       <c r="D17">
-        <v>5.464141687951836</v>
+        <v>5.539848625277092</v>
       </c>
       <c r="E17">
-        <v>7.304648282157035</v>
+        <v>7.249075896933801</v>
       </c>
       <c r="F17">
-        <v>20.62859829335327</v>
+        <v>19.92446307315</v>
       </c>
       <c r="G17">
-        <v>22.85697982297941</v>
+        <v>21.64146128415742</v>
       </c>
       <c r="H17">
-        <v>6.407219398174194</v>
+        <v>6.335353979742198</v>
       </c>
       <c r="I17">
-        <v>3.863872135165022</v>
+        <v>3.676267723295545</v>
       </c>
       <c r="J17">
-        <v>9.605447927009696</v>
+        <v>9.485250365890408</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.311323514532634</v>
+        <v>11.71168316393053</v>
       </c>
       <c r="M17">
-        <v>12.95044928820741</v>
+        <v>10.77634466343156</v>
       </c>
       <c r="N17">
-        <v>5.218905600054319</v>
+        <v>6.27470182067233</v>
       </c>
       <c r="O17">
-        <v>9.554673218679099</v>
+        <v>13.06053707684255</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.447621630719217</v>
       </c>
       <c r="Q17">
-        <v>15.51100016766614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.561249177086507</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.96731092613524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98694759768744</v>
+        <v>14.94119185868583</v>
       </c>
       <c r="C18">
-        <v>9.387600861740975</v>
+        <v>9.123762538733233</v>
       </c>
       <c r="D18">
-        <v>5.619996741901417</v>
+        <v>5.695407914131912</v>
       </c>
       <c r="E18">
-        <v>7.462320826445076</v>
+        <v>7.394141020526746</v>
       </c>
       <c r="F18">
-        <v>21.28170511627276</v>
+        <v>20.54026380527434</v>
       </c>
       <c r="G18">
-        <v>23.76787478364919</v>
+        <v>22.38834522019434</v>
       </c>
       <c r="H18">
-        <v>5.308035532337755</v>
+        <v>5.219508679029081</v>
       </c>
       <c r="I18">
-        <v>3.874327690902199</v>
+        <v>3.683022363614052</v>
       </c>
       <c r="J18">
-        <v>9.77181087177382</v>
+        <v>9.665578391540109</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.252814402731269</v>
+        <v>11.93938215708571</v>
       </c>
       <c r="M18">
-        <v>12.72223613154612</v>
+        <v>11.00537117897012</v>
       </c>
       <c r="N18">
-        <v>5.459662622210137</v>
+        <v>6.20714005483305</v>
       </c>
       <c r="O18">
-        <v>9.743398672226839</v>
+        <v>12.84417743757323</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.699944594873598</v>
       </c>
       <c r="Q18">
-        <v>15.90453881064247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.752385661950289</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.3316200355304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98041334898695</v>
+        <v>14.91363873686826</v>
       </c>
       <c r="C19">
-        <v>9.182648144837751</v>
+        <v>8.909939200049575</v>
       </c>
       <c r="D19">
-        <v>5.853392744747913</v>
+        <v>5.934020916453138</v>
       </c>
       <c r="E19">
-        <v>7.76174360193785</v>
+        <v>7.673764707358549</v>
       </c>
       <c r="F19">
-        <v>22.09886485032784</v>
+        <v>21.2819384508278</v>
       </c>
       <c r="G19">
-        <v>24.89296210006349</v>
+        <v>23.36723851057693</v>
       </c>
       <c r="H19">
-        <v>4.096637868446233</v>
+        <v>3.983944139991404</v>
       </c>
       <c r="I19">
-        <v>3.864289223867902</v>
+        <v>3.675261515163813</v>
       </c>
       <c r="J19">
-        <v>9.963375253817548</v>
+        <v>9.842082390751274</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.23512747298433</v>
+        <v>12.20227495521748</v>
       </c>
       <c r="M19">
-        <v>12.56324280674051</v>
+        <v>11.26632449184357</v>
       </c>
       <c r="N19">
-        <v>5.815657286374414</v>
+        <v>6.175904892271102</v>
       </c>
       <c r="O19">
-        <v>10.05223372296608</v>
+        <v>12.70082591223226</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.071201935815862</v>
       </c>
       <c r="Q19">
-        <v>16.37458340194098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.06626135461444</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.74578174476907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.35219426757982</v>
+        <v>15.24397553585323</v>
       </c>
       <c r="C20">
-        <v>8.985086255943957</v>
+        <v>8.707508935547709</v>
       </c>
       <c r="D20">
-        <v>6.28214784263526</v>
+        <v>6.382842463432979</v>
       </c>
       <c r="E20">
-        <v>8.410552474268917</v>
+        <v>8.285748949988585</v>
       </c>
       <c r="F20">
-        <v>23.40421838168068</v>
+        <v>22.40114421414513</v>
       </c>
       <c r="G20">
-        <v>26.67305494905204</v>
+        <v>25.07299035522291</v>
       </c>
       <c r="H20">
-        <v>3.015889333836261</v>
+        <v>2.881362980726739</v>
       </c>
       <c r="I20">
-        <v>3.769139574595599</v>
+        <v>3.592762545803082</v>
       </c>
       <c r="J20">
-        <v>10.23577727117925</v>
+        <v>9.996791567335231</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.320191263212668</v>
+        <v>12.54231571143742</v>
       </c>
       <c r="M20">
-        <v>12.59230179194899</v>
+        <v>11.65307568238773</v>
       </c>
       <c r="N20">
-        <v>6.447632608550348</v>
+        <v>6.233986745925552</v>
       </c>
       <c r="O20">
-        <v>10.6718157637843</v>
+        <v>12.75556219869317</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.729730047836477</v>
       </c>
       <c r="Q20">
-        <v>17.08387976861935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.69743775641824</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.31903509356473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.27893937071176</v>
+        <v>16.14458253557252</v>
       </c>
       <c r="C21">
-        <v>9.083757863203008</v>
+        <v>8.859878298992859</v>
       </c>
       <c r="D21">
-        <v>6.537257698201008</v>
+        <v>6.70808287871585</v>
       </c>
       <c r="E21">
-        <v>8.583117014423985</v>
+        <v>8.447525811372412</v>
       </c>
       <c r="F21">
-        <v>23.69911113813863</v>
+        <v>22.34767127154035</v>
       </c>
       <c r="G21">
-        <v>27.01763816451917</v>
+        <v>26.62216210431764</v>
       </c>
       <c r="H21">
-        <v>2.780967408802368</v>
+        <v>2.669558701580545</v>
       </c>
       <c r="I21">
-        <v>3.590778254614605</v>
+        <v>3.44218022409184</v>
       </c>
       <c r="J21">
-        <v>10.21091334875441</v>
+        <v>9.424161320302646</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.356819187561831</v>
+        <v>12.29719406067336</v>
       </c>
       <c r="M21">
-        <v>13.20700555837359</v>
+        <v>11.57939835101275</v>
       </c>
       <c r="N21">
-        <v>6.660351836026737</v>
+        <v>6.257793660716522</v>
       </c>
       <c r="O21">
-        <v>11.14822066790747</v>
+        <v>13.37372943893676</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.955515419866175</v>
       </c>
       <c r="Q21">
-        <v>17.12758193134135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.18880733730182</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.11105436909437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.86035936193776</v>
+        <v>16.71144085926201</v>
       </c>
       <c r="C22">
-        <v>9.14671590315012</v>
+        <v>8.954569871133589</v>
       </c>
       <c r="D22">
-        <v>6.681361169438091</v>
+        <v>6.900974142666512</v>
       </c>
       <c r="E22">
-        <v>8.664880467457078</v>
+        <v>8.525266982343716</v>
       </c>
       <c r="F22">
-        <v>23.86412698094504</v>
+        <v>22.27179200417941</v>
       </c>
       <c r="G22">
-        <v>27.21361710210408</v>
+        <v>27.75354920584546</v>
       </c>
       <c r="H22">
-        <v>2.641162165841392</v>
+        <v>2.544392663741306</v>
       </c>
       <c r="I22">
-        <v>3.469150424894189</v>
+        <v>3.336065731128916</v>
       </c>
       <c r="J22">
-        <v>10.19072219364563</v>
+        <v>9.088883334565979</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.375116028738913</v>
+        <v>12.13058319589885</v>
       </c>
       <c r="M22">
-        <v>13.59550946638134</v>
+        <v>11.52571893492704</v>
       </c>
       <c r="N22">
-        <v>6.763255729478322</v>
+        <v>6.26885566336248</v>
       </c>
       <c r="O22">
-        <v>11.42678967408557</v>
+        <v>13.76310167346287</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.066331653245543</v>
       </c>
       <c r="Q22">
-        <v>17.1454961250942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.47652651303446</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.95289606731597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.55986194933881</v>
+        <v>16.41773502110378</v>
       </c>
       <c r="C23">
-        <v>9.103061201810217</v>
+        <v>8.893383331137663</v>
       </c>
       <c r="D23">
-        <v>6.602609964150376</v>
+        <v>6.788905107747803</v>
       </c>
       <c r="E23">
-        <v>8.625302342509178</v>
+        <v>8.486508101992579</v>
       </c>
       <c r="F23">
-        <v>23.80126722530366</v>
+        <v>22.36565658800457</v>
       </c>
       <c r="G23">
-        <v>27.15071472542023</v>
+        <v>27.02686913827608</v>
       </c>
       <c r="H23">
-        <v>2.714632465316074</v>
+        <v>2.60936458446197</v>
       </c>
       <c r="I23">
-        <v>3.523827148716548</v>
+        <v>3.379857496996373</v>
       </c>
       <c r="J23">
-        <v>10.20866219584138</v>
+        <v>9.313068211702548</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.366934085101204</v>
+        <v>12.24114364619268</v>
       </c>
       <c r="M23">
-        <v>13.38419595994891</v>
+        <v>11.58076951873055</v>
       </c>
       <c r="N23">
-        <v>6.703281367765721</v>
+        <v>6.265001930911349</v>
       </c>
       <c r="O23">
-        <v>11.27760872824703</v>
+        <v>13.55290687884079</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.001849414806638</v>
       </c>
       <c r="Q23">
-        <v>17.15357531502405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.32174801004109</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.07537878607183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.35513067526169</v>
+        <v>15.24458529461864</v>
       </c>
       <c r="C24">
-        <v>8.953187160248184</v>
+        <v>8.664686299013203</v>
       </c>
       <c r="D24">
-        <v>6.301262038260043</v>
+        <v>6.402182077196897</v>
       </c>
       <c r="E24">
-        <v>8.466933379330984</v>
+        <v>8.339521785505074</v>
       </c>
       <c r="F24">
-        <v>23.53605475578942</v>
+        <v>22.52446472068041</v>
       </c>
       <c r="G24">
-        <v>26.86715902493916</v>
+        <v>25.24141604335627</v>
       </c>
       <c r="H24">
-        <v>3.000567112947285</v>
+        <v>2.865920268604706</v>
       </c>
       <c r="I24">
-        <v>3.753073983930629</v>
+        <v>3.573725889842669</v>
       </c>
       <c r="J24">
-        <v>10.27010480890398</v>
+        <v>10.03151758034995</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.332401660263018</v>
+        <v>12.5979250668088</v>
       </c>
       <c r="M24">
-        <v>12.56139671208259</v>
+        <v>11.70735936198321</v>
       </c>
       <c r="N24">
-        <v>6.481355093242194</v>
+        <v>6.243872455379752</v>
       </c>
       <c r="O24">
-        <v>10.69767186579912</v>
+        <v>12.72628985692074</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.765393873222648</v>
       </c>
       <c r="Q24">
-        <v>17.16710870460512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.7237702617201</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.39534791839994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.93702225954123</v>
+        <v>13.87171133455342</v>
       </c>
       <c r="C25">
-        <v>8.788922905080446</v>
+        <v>8.372060472391492</v>
       </c>
       <c r="D25">
-        <v>5.963601459479485</v>
+        <v>6.052661808678135</v>
       </c>
       <c r="E25">
-        <v>8.292038312499148</v>
+        <v>8.187838425941102</v>
       </c>
       <c r="F25">
-        <v>23.28162314303055</v>
+        <v>22.39978576591457</v>
       </c>
       <c r="G25">
-        <v>26.61158793046994</v>
+        <v>25.08160232966585</v>
       </c>
       <c r="H25">
-        <v>3.32295397676703</v>
+        <v>3.16558368356767</v>
       </c>
       <c r="I25">
-        <v>4.01365117689121</v>
+        <v>3.804829749220314</v>
       </c>
       <c r="J25">
-        <v>10.347933038434</v>
+        <v>10.14744792921154</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.29281860554563</v>
+        <v>12.87615008863781</v>
       </c>
       <c r="M25">
-        <v>11.60838857384665</v>
+        <v>11.75893591757294</v>
       </c>
       <c r="N25">
-        <v>6.235932956774302</v>
+        <v>6.210348101895353</v>
       </c>
       <c r="O25">
-        <v>10.03791957965616</v>
+        <v>11.75032748837592</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.509547853693612</v>
       </c>
       <c r="Q25">
-        <v>17.20751833995353</v>
+        <v>10.05186660190894</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.52261235539771</v>
       </c>
     </row>
   </sheetData>
